--- a/Algoritmo_Rota/Planilhas_de_Rota/BCU/PLN_BCU_81_10.xlsx
+++ b/Algoritmo_Rota/Planilhas_de_Rota/BCU/PLN_BCU_81_10.xlsx
@@ -466,7 +466,7 @@
         <v>23</v>
       </c>
       <c r="C2" t="n">
-        <v>3445</v>
+        <v>3231</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -475,16 +475,16 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>23 -&gt; 46 -&gt; 49 -&gt; 20 -&gt; 8 -&gt; 2 -&gt; 79 -&gt; 26 -&gt; 74 -&gt; 70 -&gt; 67 -&gt; 23</t>
+          <t>23 -&gt; 67 -&gt; 70 -&gt; 74 -&gt; 79 -&gt; 2 -&gt; 26 -&gt; 8 -&gt; 20 -&gt; 46 -&gt; 49 -&gt; 23</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>23 -&gt; 24 -&gt; 32 -&gt; 44 -&gt; 46 -&gt; 45 -&gt; 49 -&gt; 45 -&gt; 43 -&gt; 32 -&gt; 24 -&gt; 20 -&gt; 17 -&gt; 13 -&gt; 12 -&gt; 8 -&gt; 5 -&gt; 2 -&gt; 80 -&gt; 79 -&gt; 81 -&gt; 3 -&gt; 25 -&gt; 26 -&gt; 27 -&gt; 6 -&gt; 5 -&gt; 4 -&gt; 74 -&gt; 72 -&gt; 70 -&gt; 68 -&gt; 67 -&gt; 21 -&gt; 22 -&gt; 23</t>
+          <t>23 -&gt; 22 -&gt; 21 -&gt; 67 -&gt; 68 -&gt; 70 -&gt; 72 -&gt; 74 -&gt; 76 -&gt; 77 -&gt; 78 -&gt; 79 -&gt; 80 -&gt; 2 -&gt; 3 -&gt; 25 -&gt; 26 -&gt; 27 -&gt; 6 -&gt; 5 -&gt; 8 -&gt; 12 -&gt; 16 -&gt; 17 -&gt; 20 -&gt; 24 -&gt; 32 -&gt; 44 -&gt; 46 -&gt; 45 -&gt; 49 -&gt; 45 -&gt; 43 -&gt; 32 -&gt; 24 -&gt; 23</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.05187058448791504</v>
+        <v>0.03832435607910156</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>48</v>
       </c>
       <c r="C3" t="n">
-        <v>4300</v>
+        <v>4082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -509,11 +509,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>48 -&gt; 47 -&gt; 46 -&gt; 44 -&gt; 41 -&gt; 32 -&gt; 24 -&gt; 23 -&gt; 19 -&gt; 16 -&gt; 15 -&gt; 14 -&gt; 10 -&gt; 72 -&gt; 74 -&gt; 4 -&gt; 1 -&gt; 77 -&gt; 78 -&gt; 79 -&gt; 81 -&gt; 3 -&gt; 25 -&gt; 26 -&gt; 27 -&gt; 28 -&gt; 29 -&gt; 30 -&gt; 37 -&gt; 38 -&gt; 41 -&gt; 32 -&gt; 24 -&gt; 23 -&gt; 22 -&gt; 66 -&gt; 65 -&gt; 64 -&gt; 61 -&gt; 62 -&gt; 58 -&gt; 57 -&gt; 55 -&gt; 53 -&gt; 49 -&gt; 45 -&gt; 46 -&gt; 47 -&gt; 48</t>
+          <t>48 -&gt; 47 -&gt; 46 -&gt; 44 -&gt; 41 -&gt; 32 -&gt; 24 -&gt; 23 -&gt; 19 -&gt; 16 -&gt; 15 -&gt; 14 -&gt; 10 -&gt; 7 -&gt; 4 -&gt; 1 -&gt; 77 -&gt; 78 -&gt; 79 -&gt; 81 -&gt; 3 -&gt; 25 -&gt; 26 -&gt; 27 -&gt; 28 -&gt; 29 -&gt; 30 -&gt; 37 -&gt; 38 -&gt; 41 -&gt; 32 -&gt; 24 -&gt; 23 -&gt; 22 -&gt; 66 -&gt; 65 -&gt; 64 -&gt; 61 -&gt; 62 -&gt; 58 -&gt; 57 -&gt; 55 -&gt; 53 -&gt; 49 -&gt; 45 -&gt; 46 -&gt; 47 -&gt; 48</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.04323506355285645</v>
+        <v>0.03947877883911133</v>
       </c>
     </row>
     <row r="4">
@@ -524,7 +524,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>3864</v>
+        <v>3796</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -538,11 +538,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>11 -&gt; 10 -&gt; 14 -&gt; 18 -&gt; 21 -&gt; 22 -&gt; 66 -&gt; 65 -&gt; 64 -&gt; 61 -&gt; 62 -&gt; 63 -&gt; 62 -&gt; 61 -&gt; 64 -&gt; 65 -&gt; 66 -&gt; 22 -&gt; 21 -&gt; 67 -&gt; 68 -&gt; 70 -&gt; 72 -&gt; 74 -&gt; 76 -&gt; 77 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 25 -&gt; 26 -&gt; 27 -&gt; 28 -&gt; 34 -&gt; 28 -&gt; 29 -&gt; 30 -&gt; 31 -&gt; 38 -&gt; 39 -&gt; 40 -&gt; 39 -&gt; 38 -&gt; 31 -&gt; 20 -&gt; 17 -&gt; 13 -&gt; 12 -&gt; 11</t>
+          <t>11 -&gt; 10 -&gt; 14 -&gt; 18 -&gt; 21 -&gt; 22 -&gt; 66 -&gt; 65 -&gt; 64 -&gt; 61 -&gt; 62 -&gt; 63 -&gt; 62 -&gt; 61 -&gt; 64 -&gt; 65 -&gt; 66 -&gt; 22 -&gt; 21 -&gt; 67 -&gt; 68 -&gt; 70 -&gt; 72 -&gt; 74 -&gt; 76 -&gt; 77 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 25 -&gt; 26 -&gt; 27 -&gt; 28 -&gt; 34 -&gt; 28 -&gt; 29 -&gt; 30 -&gt; 31 -&gt; 38 -&gt; 39 -&gt; 40 -&gt; 39 -&gt; 38 -&gt; 31 -&gt; 20 -&gt; 17 -&gt; 16 -&gt; 12 -&gt; 11</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.05052518844604492</v>
+        <v>0.03991985321044922</v>
       </c>
     </row>
   </sheetData>

--- a/Algoritmo_Rota/Planilhas_de_Rota/BCU/PLN_BCU_81_10.xlsx
+++ b/Algoritmo_Rota/Planilhas_de_Rota/BCU/PLN_BCU_81_10.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,6 +457,16 @@
           <t>Tempo</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Tempo Heuristica</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Tempo Total</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -484,7 +494,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.03832435607910156</v>
+        <v>0.05084657669067383</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.05084657669067383</v>
       </c>
     </row>
     <row r="3">
@@ -513,7 +529,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.03947877883911133</v>
+        <v>0.05266118049621582</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.05266118049621582</v>
       </c>
     </row>
     <row r="4">
@@ -542,7 +564,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.03991985321044922</v>
+        <v>0.05157780647277832</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.05157780647277832</v>
       </c>
     </row>
   </sheetData>
